--- a/script/temp/config.xlsx
+++ b/script/temp/config.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ssd" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="workload" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="161">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -389,6 +390,120 @@
   </si>
   <si>
     <t xml:space="preserve">448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority_Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device_Level_Data_Caching_Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRITE_CACHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plane_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial_Occupancy_Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working_Set_Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetic_Generator_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEUE_DEPTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read_Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address_Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDOM_UNIFORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{STREAMING, RANDOM_UNIFORM}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage_of_Hot_Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generated_Aligned_Addresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address_Alignment_Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request_Size_Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {FIXED, NORMAL}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average_Request_Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance_Request_Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average_No_of_Reqs_in_Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop_Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_Requests_To_Generate</t>
   </si>
 </sst>
 </file>
@@ -431,7 +546,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +563,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -492,7 +613,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,6 +643,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,8 +733,8 @@
   </sheetPr>
   <dimension ref="A1:G1062"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -765,15 +894,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="0" t="n">
-        <f aca="false">C7/5</f>
-        <v>64.2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <f aca="false">C7*5</f>
-        <v>1605</v>
+        <v>65535</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,16 +1182,8 @@
       <c r="C22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="0" t="e">
-        <f aca="false">C22/5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="0" t="e">
-        <f aca="false">C22*5</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>54</v>
@@ -1176,12 +1295,10 @@
         <v>66</v>
       </c>
       <c r="D28" s="0" t="n">
-        <f aca="false">C28/5</f>
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="E28" s="0" t="n">
-        <f aca="false">C28*5</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>9</v>
@@ -1281,12 +1398,10 @@
         <v>75</v>
       </c>
       <c r="D33" s="0" t="n">
-        <f aca="false">C33/5</f>
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E33" s="0" t="n">
-        <f aca="false">C33*5</f>
-        <v>0.025</v>
+        <v>0.25</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>9</v>
@@ -4908,4 +5023,434 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="40.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.92"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1" type="list">
+      <formula1>"double,int,ignore,Boolean,enumeration,manual,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D1023" type="list">
+      <formula1>"int,Boolean,enumeration,ignore,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/script/temp/config.xlsx
+++ b/script/temp/config.xlsx
@@ -236,7 +236,7 @@
     <t xml:space="preserve">RGA</t>
   </si>
   <si>
-    <t xml:space="preserve">{GREEDY, RGA, RANDOM, RANDOM_P  RANDOM_PP, FIFO }</t>
+    <t xml:space="preserve">{GREEDY, RGA, RANDOM, RANDOM_P,RANDOM_PP, FIFO }</t>
   </si>
   <si>
     <t xml:space="preserve">Use_Copyback_for_GC</t>
@@ -733,8 +733,8 @@
   </sheetPr>
   <dimension ref="A1:G1062"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1001,7 +1001,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>36</v>
